--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3426.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3426.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9090381618080129</v>
+        <v>1.385465741157532</v>
       </c>
       <c r="B1">
-        <v>1.292214147936001</v>
+        <v>2.664197683334351</v>
       </c>
       <c r="C1">
-        <v>2.428854105737297</v>
+        <v>5.914616584777832</v>
       </c>
       <c r="D1">
-        <v>5.117296487864697</v>
+        <v>2.281152009963989</v>
       </c>
       <c r="E1">
-        <v>2.681368640335269</v>
+        <v>1.207550287246704</v>
       </c>
     </row>
   </sheetData>
